--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>204.172971</v>
+        <v>151.5090713333333</v>
       </c>
       <c r="H2">
-        <v>612.518913</v>
+        <v>454.527214</v>
       </c>
       <c r="I2">
-        <v>0.6071689638941019</v>
+        <v>0.7011959105080696</v>
       </c>
       <c r="J2">
-        <v>0.6577852954594023</v>
+        <v>0.7120250504896967</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>40191.2024281704</v>
+        <v>24653.93536506857</v>
       </c>
       <c r="R2">
-        <v>361720.8218535336</v>
+        <v>221885.4182856171</v>
       </c>
       <c r="S2">
-        <v>0.358113428561417</v>
+        <v>0.3668262899099661</v>
       </c>
       <c r="T2">
-        <v>0.3896610907832263</v>
+        <v>0.3736505985648899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>204.172971</v>
+        <v>151.5090713333333</v>
       </c>
       <c r="H3">
-        <v>612.518913</v>
+        <v>454.527214</v>
       </c>
       <c r="I3">
-        <v>0.6071689638941019</v>
+        <v>0.7011959105080696</v>
       </c>
       <c r="J3">
-        <v>0.6577852954594023</v>
+        <v>0.7120250504896967</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>59.202879420701</v>
+        <v>43.93222686312244</v>
       </c>
       <c r="R3">
-        <v>532.825914786309</v>
+        <v>395.390041768102</v>
       </c>
       <c r="S3">
-        <v>0.0005275121133274471</v>
+        <v>0.0006536682906419768</v>
       </c>
       <c r="T3">
-        <v>0.0005739827917267996</v>
+        <v>0.0006658289080676584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>204.172971</v>
+        <v>151.5090713333333</v>
       </c>
       <c r="H4">
-        <v>612.518913</v>
+        <v>454.527214</v>
       </c>
       <c r="I4">
-        <v>0.6071689638941019</v>
+        <v>0.7011959105080696</v>
       </c>
       <c r="J4">
-        <v>0.6577852954594023</v>
+        <v>0.7120250504896967</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>11154.34263392099</v>
+        <v>9330.027699639319</v>
       </c>
       <c r="R4">
-        <v>100389.0837052889</v>
+        <v>83970.24929675387</v>
       </c>
       <c r="S4">
-        <v>0.09938791682386777</v>
+        <v>0.1388216280742402</v>
       </c>
       <c r="T4">
-        <v>0.1081434009214179</v>
+        <v>0.1414042173379218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>204.172971</v>
+        <v>151.5090713333333</v>
       </c>
       <c r="H5">
-        <v>612.518913</v>
+        <v>454.527214</v>
       </c>
       <c r="I5">
-        <v>0.6071689638941019</v>
+        <v>0.7011959105080696</v>
       </c>
       <c r="J5">
-        <v>0.6577852954594023</v>
+        <v>0.7120250504896967</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>888.577716148593</v>
+        <v>438.5770207608477</v>
       </c>
       <c r="R5">
-        <v>5331.466296891558</v>
+        <v>2631.462124565086</v>
       </c>
       <c r="S5">
-        <v>0.007917444446753071</v>
+        <v>0.006525594351699983</v>
       </c>
       <c r="T5">
-        <v>0.005743282794933964</v>
+        <v>0.004431329492228811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>204.172971</v>
+        <v>151.5090713333333</v>
       </c>
       <c r="H6">
-        <v>612.518913</v>
+        <v>454.527214</v>
       </c>
       <c r="I6">
-        <v>0.6071689638941019</v>
+        <v>0.7011959105080696</v>
       </c>
       <c r="J6">
-        <v>0.6577852954594023</v>
+        <v>0.7120250504896967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>15849.47153930397</v>
+        <v>12660.02633682259</v>
       </c>
       <c r="R6">
-        <v>142645.2438537358</v>
+        <v>113940.2370314033</v>
       </c>
       <c r="S6">
-        <v>0.1412226619487365</v>
+        <v>0.1883687298815215</v>
       </c>
       <c r="T6">
-        <v>0.1536635381680973</v>
+        <v>0.1918730761865885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>155.494806</v>
       </c>
       <c r="I7">
-        <v>0.1541366613277693</v>
+        <v>0.2398807347813626</v>
       </c>
       <c r="J7">
-        <v>0.1669861856283815</v>
+        <v>0.2435854084922527</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>10202.98817201598</v>
+        <v>8434.168029217006</v>
       </c>
       <c r="R7">
-        <v>91826.89354814382</v>
+        <v>75907.51226295305</v>
       </c>
       <c r="S7">
-        <v>0.09091111624197701</v>
+        <v>0.1254921180258525</v>
       </c>
       <c r="T7">
-        <v>0.09891984464663568</v>
+        <v>0.1278267297227915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>155.494806</v>
       </c>
       <c r="I8">
-        <v>0.1541366613277693</v>
+        <v>0.2398807347813626</v>
       </c>
       <c r="J8">
-        <v>0.1669861856283815</v>
+        <v>0.2435854084922527</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>15.02931591952867</v>
@@ -948,10 +948,10 @@
         <v>135.263843275758</v>
       </c>
       <c r="S8">
-        <v>0.000133914875089745</v>
+        <v>0.0002236214266407507</v>
       </c>
       <c r="T8">
-        <v>0.0001457119787693757</v>
+        <v>0.0002277816018496362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>155.494806</v>
       </c>
       <c r="I9">
-        <v>0.1541366613277693</v>
+        <v>0.2398807347813626</v>
       </c>
       <c r="J9">
-        <v>0.1669861856283815</v>
+        <v>0.2435854084922527</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>2831.655165428456</v>
+        <v>3191.823949027708</v>
       </c>
       <c r="R9">
-        <v>25484.8964888561</v>
+        <v>28726.41554124937</v>
       </c>
       <c r="S9">
-        <v>0.02523073903070068</v>
+        <v>0.04749119846101917</v>
       </c>
       <c r="T9">
-        <v>0.02745341701221249</v>
+        <v>0.04837470819193235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>155.494806</v>
       </c>
       <c r="I10">
-        <v>0.1541366613277693</v>
+        <v>0.2398807347813626</v>
       </c>
       <c r="J10">
-        <v>0.1669861856283815</v>
+        <v>0.2435854084922527</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>225.575433926966</v>
+        <v>150.038208183649</v>
       </c>
       <c r="R10">
-        <v>1353.452603561796</v>
+        <v>900.229249101894</v>
       </c>
       <c r="S10">
-        <v>0.002009932203127981</v>
+        <v>0.002232420846317652</v>
       </c>
       <c r="T10">
-        <v>0.00145799684719514</v>
+        <v>0.001515968017959421</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>155.494806</v>
       </c>
       <c r="I11">
-        <v>0.1541366613277693</v>
+        <v>0.2398807347813626</v>
       </c>
       <c r="J11">
-        <v>0.1669861856283815</v>
+        <v>0.2435854084922527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>4023.566374686936</v>
+        <v>4331.024146772254</v>
       </c>
       <c r="R11">
-        <v>36212.09737218242</v>
+        <v>38979.21732095028</v>
       </c>
       <c r="S11">
-        <v>0.03585095897687385</v>
+        <v>0.06444137602153251</v>
       </c>
       <c r="T11">
-        <v>0.03900921514356877</v>
+        <v>0.06564022095771982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.131122666666666</v>
+        <v>1.349157666666667</v>
       </c>
       <c r="H12">
-        <v>3.393368</v>
+        <v>4.047473</v>
       </c>
       <c r="I12">
-        <v>0.003363729166468041</v>
+        <v>0.006244007901123888</v>
       </c>
       <c r="J12">
-        <v>0.003644144735956065</v>
+        <v>0.006340439204550433</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>222.6601290289884</v>
+        <v>219.5383129113589</v>
       </c>
       <c r="R12">
-        <v>2003.941161260896</v>
+        <v>1975.84481620223</v>
       </c>
       <c r="S12">
-        <v>0.001983956124552514</v>
+        <v>0.003266513991614944</v>
       </c>
       <c r="T12">
-        <v>0.002158730854256732</v>
+        <v>0.003327283081283733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.131122666666666</v>
+        <v>1.349157666666667</v>
       </c>
       <c r="H13">
-        <v>3.393368</v>
+        <v>4.047473</v>
       </c>
       <c r="I13">
-        <v>0.003363729166468041</v>
+        <v>0.006244007901123888</v>
       </c>
       <c r="J13">
-        <v>0.003644144735956065</v>
+        <v>0.006340439204550433</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.3279852299582222</v>
+        <v>0.3912076033765556</v>
       </c>
       <c r="R13">
-        <v>2.951867069624</v>
+        <v>3.520868430389</v>
       </c>
       <c r="S13">
-        <v>2.922428494836913E-06</v>
+        <v>5.820784049532299E-06</v>
       </c>
       <c r="T13">
-        <v>3.179877056296523E-06</v>
+        <v>5.929071890563037E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.131122666666666</v>
+        <v>1.349157666666667</v>
       </c>
       <c r="H14">
-        <v>3.393368</v>
+        <v>4.047473</v>
       </c>
       <c r="I14">
-        <v>0.003363729166468041</v>
+        <v>0.006244007901123888</v>
       </c>
       <c r="J14">
-        <v>0.003644144735956065</v>
+        <v>0.006340439204550433</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>61.79529897223466</v>
+        <v>83.08201146244734</v>
       </c>
       <c r="R14">
-        <v>556.157690750112</v>
+        <v>747.7381031620261</v>
       </c>
       <c r="S14">
-        <v>0.0005506112046156108</v>
+        <v>0.001236178548038554</v>
       </c>
       <c r="T14">
-        <v>0.000599116775514016</v>
+        <v>0.001259175983599896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.131122666666666</v>
+        <v>1.349157666666667</v>
       </c>
       <c r="H15">
-        <v>3.393368</v>
+        <v>4.047473</v>
       </c>
       <c r="I15">
-        <v>0.003363729166468041</v>
+        <v>0.006244007901123888</v>
       </c>
       <c r="J15">
-        <v>0.003644144735956065</v>
+        <v>0.006340439204550433</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>4.922739728514666</v>
+        <v>3.905439752062834</v>
       </c>
       <c r="R15">
-        <v>29.536438371088</v>
+        <v>23.432638512377</v>
       </c>
       <c r="S15">
-        <v>4.386281314286465E-05</v>
+        <v>5.810909915606985E-05</v>
       </c>
       <c r="T15">
-        <v>3.181791065981251E-05</v>
+        <v>3.946009374457351E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.131122666666666</v>
+        <v>1.349157666666667</v>
       </c>
       <c r="H16">
-        <v>3.393368</v>
+        <v>4.047473</v>
       </c>
       <c r="I16">
-        <v>0.003363729166468041</v>
+        <v>0.006244007901123888</v>
       </c>
       <c r="J16">
-        <v>0.003644144735956065</v>
+        <v>0.006340439204550433</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>87.80641445823377</v>
+        <v>112.7349764750903</v>
       </c>
       <c r="R16">
-        <v>790.257730124104</v>
+        <v>1014.614788275813</v>
       </c>
       <c r="S16">
-        <v>0.0007823765956622142</v>
+        <v>0.001677385478264787</v>
       </c>
       <c r="T16">
-        <v>0.0008512993184692077</v>
+        <v>0.001708590974031667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.627651</v>
+        <v>9.858689999999999</v>
       </c>
       <c r="H17">
-        <v>155.255302</v>
+        <v>19.71738</v>
       </c>
       <c r="I17">
-        <v>0.230848873856094</v>
+        <v>0.04562679349910256</v>
       </c>
       <c r="J17">
-        <v>0.1667289817999607</v>
+        <v>0.03088763017394275</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>15280.90922164406</v>
+        <v>1604.2307163873</v>
       </c>
       <c r="R17">
-        <v>91685.45532986434</v>
+        <v>9625.384298323799</v>
       </c>
       <c r="S17">
-        <v>0.1361566328521473</v>
+        <v>0.02386937392095833</v>
       </c>
       <c r="T17">
-        <v>0.09876748136787608</v>
+        <v>0.01620895429845788</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.627651</v>
+        <v>9.858689999999999</v>
       </c>
       <c r="H18">
-        <v>155.255302</v>
+        <v>19.71738</v>
       </c>
       <c r="I18">
-        <v>0.230848873856094</v>
+        <v>0.04562679349910256</v>
       </c>
       <c r="J18">
-        <v>0.1667289817999607</v>
+        <v>0.03088763017394275</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>22.50925007044767</v>
+        <v>2.85866847339</v>
       </c>
       <c r="R18">
-        <v>135.055500422686</v>
+        <v>17.15201084034</v>
       </c>
       <c r="S18">
-        <v>0.0002005629150180487</v>
+        <v>4.253417292810865E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001454875429656282</v>
+        <v>2.88836425872513E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.627651</v>
+        <v>9.858689999999999</v>
       </c>
       <c r="H19">
-        <v>155.255302</v>
+        <v>19.71738</v>
       </c>
       <c r="I19">
-        <v>0.230848873856094</v>
+        <v>0.04562679349910256</v>
       </c>
       <c r="J19">
-        <v>0.1667289817999607</v>
+        <v>0.03088763017394275</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>4240.940477476029</v>
+        <v>607.10457778326</v>
       </c>
       <c r="R19">
-        <v>25445.64286485617</v>
+        <v>3642.62746669956</v>
       </c>
       <c r="S19">
-        <v>0.03778781531675041</v>
+        <v>0.00903311850858218</v>
       </c>
       <c r="T19">
-        <v>0.02741113133491409</v>
+        <v>0.006134111668073615</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.627651</v>
+        <v>9.858689999999999</v>
       </c>
       <c r="H20">
-        <v>155.255302</v>
+        <v>19.71738</v>
       </c>
       <c r="I20">
-        <v>0.230848873856094</v>
+        <v>0.04562679349910256</v>
       </c>
       <c r="J20">
-        <v>0.1667289817999607</v>
+        <v>0.03088763017394275</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>337.841980247033</v>
+        <v>28.538191480905</v>
       </c>
       <c r="R20">
-        <v>1351.367920988132</v>
+        <v>114.15276592362</v>
       </c>
       <c r="S20">
-        <v>0.003010254546986219</v>
+        <v>0.0004246201974112891</v>
       </c>
       <c r="T20">
-        <v>0.001455751138249141</v>
+        <v>0.0001922309705827262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.627651</v>
+        <v>9.858689999999999</v>
       </c>
       <c r="H21">
-        <v>155.255302</v>
+        <v>19.71738</v>
       </c>
       <c r="I21">
-        <v>0.230848873856094</v>
+        <v>0.04562679349910256</v>
       </c>
       <c r="J21">
-        <v>0.1667289817999607</v>
+        <v>0.03088763017394275</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>6026.053493571985</v>
+        <v>823.78747323963</v>
       </c>
       <c r="R21">
-        <v>36156.32096143191</v>
+        <v>4942.72483943778</v>
       </c>
       <c r="S21">
-        <v>0.05369360822519204</v>
+        <v>0.01225714669922266</v>
       </c>
       <c r="T21">
-        <v>0.03894913041595578</v>
+        <v>0.008323449594241274</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.507087333333333</v>
+        <v>1.523862</v>
       </c>
       <c r="H22">
-        <v>4.521262</v>
+        <v>4.571586</v>
       </c>
       <c r="I22">
-        <v>0.004481771755566633</v>
+        <v>0.007052553310341378</v>
       </c>
       <c r="J22">
-        <v>0.004855392376299355</v>
+        <v>0.007161471639557297</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N22">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O22">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P22">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q22">
-        <v>296.6683189957183</v>
+        <v>247.96663937454</v>
       </c>
       <c r="R22">
-        <v>2670.014870961464</v>
+        <v>2231.69975437086</v>
       </c>
       <c r="S22">
-        <v>0.002643387170388402</v>
+        <v>0.003689499505709117</v>
       </c>
       <c r="T22">
-        <v>0.00287625385150638</v>
+        <v>0.00375813767069813</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.507087333333333</v>
+        <v>1.523862</v>
       </c>
       <c r="H23">
-        <v>4.521262</v>
+        <v>4.571586</v>
       </c>
       <c r="I23">
-        <v>0.004481771755566633</v>
+        <v>0.007052553310341378</v>
       </c>
       <c r="J23">
-        <v>0.004855392376299355</v>
+        <v>0.007161471639557297</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.869893</v>
       </c>
       <c r="O23">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P23">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q23">
-        <v>0.4370015738851111</v>
+        <v>0.441865628922</v>
       </c>
       <c r="R23">
-        <v>3.933014164966</v>
+        <v>3.976790660298</v>
       </c>
       <c r="S23">
-        <v>3.893790741653524E-06</v>
+        <v>6.574525603967009E-06</v>
       </c>
       <c r="T23">
-        <v>4.236810537290777E-06</v>
+        <v>6.696835790601076E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.507087333333333</v>
+        <v>1.523862</v>
       </c>
       <c r="H24">
-        <v>4.521262</v>
+        <v>4.571586</v>
       </c>
       <c r="I24">
-        <v>0.004481771755566633</v>
+        <v>0.007052553310341378</v>
       </c>
       <c r="J24">
-        <v>0.004855392376299355</v>
+        <v>0.007161471639557297</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N24">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O24">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P24">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q24">
-        <v>82.33493597564535</v>
+        <v>93.84041856574801</v>
       </c>
       <c r="R24">
-        <v>741.0144237808081</v>
+        <v>844.563767091732</v>
       </c>
       <c r="S24">
-        <v>0.0007336243862153431</v>
+        <v>0.001396253055601206</v>
       </c>
       <c r="T24">
-        <v>0.0007982523294538202</v>
+        <v>0.001422228461600983</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.507087333333333</v>
+        <v>1.523862</v>
       </c>
       <c r="H25">
-        <v>4.521262</v>
+        <v>4.571586</v>
       </c>
       <c r="I25">
-        <v>0.004481771755566633</v>
+        <v>0.007052553310341378</v>
       </c>
       <c r="J25">
-        <v>0.004855392376299355</v>
+        <v>0.007161471639557297</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N25">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O25">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P25">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q25">
-        <v>6.558969162915334</v>
+        <v>4.411160666019001</v>
       </c>
       <c r="R25">
-        <v>39.35381497749201</v>
+        <v>26.466963996114</v>
       </c>
       <c r="S25">
-        <v>5.844201698016088E-05</v>
+        <v>6.563372854482309E-05</v>
       </c>
       <c r="T25">
-        <v>4.239360729092902E-05</v>
+        <v>4.456983706163816E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.507087333333333</v>
+        <v>1.523862</v>
       </c>
       <c r="H26">
-        <v>4.521262</v>
+        <v>4.571586</v>
       </c>
       <c r="I26">
-        <v>0.004481771755566633</v>
+        <v>0.007052553310341378</v>
       </c>
       <c r="J26">
-        <v>0.004855392376299355</v>
+        <v>0.007161471639557297</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N26">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O26">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P26">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q26">
-        <v>116.9916746566429</v>
+        <v>127.333187933274</v>
       </c>
       <c r="R26">
-        <v>1052.925071909786</v>
+        <v>1145.998691399466</v>
       </c>
       <c r="S26">
-        <v>0.001042424391241072</v>
+        <v>0.001894592494882265</v>
       </c>
       <c r="T26">
-        <v>0.001134255777510935</v>
+        <v>0.001929838834405945</v>
       </c>
     </row>
   </sheetData>
